--- a/test-data/TestData_And_Validation.xlsx
+++ b/test-data/TestData_And_Validation.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="47">
   <si>
     <t>Car Loan Amount</t>
   </si>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,6 +291,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1016,7 +1052,7 @@
       <c r="E2" s="5" t="n">
         <v>2.0E7</v>
       </c>
-      <c r="F2" s="234" t="s">
+      <c r="F2" s="270" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1036,7 +1072,7 @@
       <c r="E3" s="5" t="n">
         <v>1.5E7</v>
       </c>
-      <c r="F3" s="235" t="s">
+      <c r="F3" s="271" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1056,7 +1092,7 @@
       <c r="E4" s="5" t="n">
         <v>5000000.0</v>
       </c>
-      <c r="F4" s="236" t="s">
+      <c r="F4" s="272" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1076,7 +1112,7 @@
       <c r="E5" s="5" t="n">
         <v>1.6E7</v>
       </c>
-      <c r="F5" s="237" t="s">
+      <c r="F5" s="273" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1112,7 +1148,7 @@
       <c r="E7" s="5" t="n">
         <v>120.0</v>
       </c>
-      <c r="F7" s="238" t="s">
+      <c r="F7" s="274" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1132,7 +1168,7 @@
       <c r="E8" s="5" t="n">
         <v>48000.0</v>
       </c>
-      <c r="F8" s="239" t="s">
+      <c r="F8" s="275" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1168,7 +1204,7 @@
       <c r="E10" s="5" t="n">
         <v>1000000.0</v>
       </c>
-      <c r="F10" s="240" t="s">
+      <c r="F10" s="276" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1188,7 +1224,7 @@
       <c r="E11" s="5" t="n">
         <v>60000.0</v>
       </c>
-      <c r="F11" s="241" t="s">
+      <c r="F11" s="277" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1208,7 +1244,7 @@
       <c r="E12" s="5" t="n">
         <v>20000.0</v>
       </c>
-      <c r="F12" s="242" t="s">
+      <c r="F12" s="278" t="s">
         <v>40</v>
       </c>
     </row>

--- a/test-data/TestData_And_Validation.xlsx
+++ b/test-data/TestData_And_Validation.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="47">
   <si>
     <t>Car Loan Amount</t>
   </si>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,15 +291,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1052,7 +1043,7 @@
       <c r="E2" s="5" t="n">
         <v>2.0E7</v>
       </c>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="261" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1072,7 +1063,7 @@
       <c r="E3" s="5" t="n">
         <v>1.5E7</v>
       </c>
-      <c r="F3" s="271" t="s">
+      <c r="F3" s="262" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1092,7 +1083,7 @@
       <c r="E4" s="5" t="n">
         <v>5000000.0</v>
       </c>
-      <c r="F4" s="272" t="s">
+      <c r="F4" s="263" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1112,7 +1103,7 @@
       <c r="E5" s="5" t="n">
         <v>1.6E7</v>
       </c>
-      <c r="F5" s="273" t="s">
+      <c r="F5" s="264" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1148,7 +1139,7 @@
       <c r="E7" s="5" t="n">
         <v>120.0</v>
       </c>
-      <c r="F7" s="274" t="s">
+      <c r="F7" s="265" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1168,7 +1159,7 @@
       <c r="E8" s="5" t="n">
         <v>48000.0</v>
       </c>
-      <c r="F8" s="275" t="s">
+      <c r="F8" s="266" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1204,7 +1195,7 @@
       <c r="E10" s="5" t="n">
         <v>1000000.0</v>
       </c>
-      <c r="F10" s="276" t="s">
+      <c r="F10" s="267" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1224,7 +1215,7 @@
       <c r="E11" s="5" t="n">
         <v>60000.0</v>
       </c>
-      <c r="F11" s="277" t="s">
+      <c r="F11" s="268" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1244,7 +1235,7 @@
       <c r="E12" s="5" t="n">
         <v>20000.0</v>
       </c>
-      <c r="F12" s="278" t="s">
+      <c r="F12" s="269" t="s">
         <v>40</v>
       </c>
     </row>
